--- a/19_isolados-Robs/Parâmetros fit.xlsx
+++ b/19_isolados-Robs/Parâmetros fit.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,10 +390,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>ccapacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>mmax_sd</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>M_sd</t>
         </is>
@@ -412,19 +417,22 @@
         <v>0.00125</v>
       </c>
       <c r="D2">
-        <v>0.009368982846347976</v>
+        <v>0.562140386404189</v>
       </c>
       <c r="E2">
-        <v>0.2981631164065268</v>
+        <v>0.2981631014858408</v>
       </c>
       <c r="F2">
-        <v>430.2225465709677</v>
+        <v>7.170379982724255</v>
       </c>
       <c r="G2">
-        <v>0.0005527392906174015</v>
+        <v>0.2994131014858408</v>
       </c>
       <c r="H2">
-        <v>4.859521521874226</v>
+        <v>0.03316447182195971</v>
+      </c>
+      <c r="I2">
+        <v>0.08099191939125885</v>
       </c>
     </row>
     <row r="3">
@@ -440,19 +448,22 @@
         <v>0.00175</v>
       </c>
       <c r="D3">
-        <v>0.008820273683673956</v>
+        <v>0.5292168346095836</v>
       </c>
       <c r="E3">
-        <v>0.2822471124724504</v>
+        <v>0.2822471061705084</v>
       </c>
       <c r="F3">
-        <v>420.0999147811544</v>
+        <v>7.001666458834984</v>
       </c>
       <c r="G3">
-        <v>0.0002926724179979696</v>
+        <v>0.2839971061705083</v>
       </c>
       <c r="H3">
-        <v>2.883201472133951</v>
+        <v>0.01756036364209037</v>
+      </c>
+      <c r="I3">
+        <v>0.04805333824530227</v>
       </c>
     </row>
     <row r="4">
@@ -468,19 +479,22 @@
         <v>0.0015</v>
       </c>
       <c r="D4">
-        <v>0.00732284341365226</v>
+        <v>0.4393706665985652</v>
       </c>
       <c r="E4">
-        <v>0.4717857158521261</v>
+        <v>0.4717857119712251</v>
       </c>
       <c r="F4">
-        <v>495.0129546894116</v>
+        <v>8.250216099136837</v>
       </c>
       <c r="G4">
-        <v>0.0003856560454194946</v>
+        <v>0.4732857119712251</v>
       </c>
       <c r="H4">
-        <v>5.264013737100448</v>
+        <v>0.02313936714286349</v>
+      </c>
+      <c r="I4">
+        <v>0.08773355556770962</v>
       </c>
     </row>
     <row r="5">
@@ -496,19 +510,22 @@
         <v>0.00075</v>
       </c>
       <c r="D5">
-        <v>0.006013246811376247</v>
+        <v>0.3607947313114085</v>
       </c>
       <c r="E5">
-        <v>0.4279389979755698</v>
+        <v>0.4279390111136047</v>
       </c>
       <c r="F5">
-        <v>496.4590467306924</v>
+        <v>8.274317477383477</v>
       </c>
       <c r="G5">
-        <v>8.944887745508936E-05</v>
+        <v>0.4286890111136046</v>
       </c>
       <c r="H5">
-        <v>1.728580099891891</v>
+        <v>0.005366931318217026</v>
+      </c>
+      <c r="I5">
+        <v>0.02880967146302317</v>
       </c>
     </row>
     <row r="6">
@@ -524,19 +541,22 @@
         <v>0.0025</v>
       </c>
       <c r="D6">
-        <v>0.003984719160481888</v>
+        <v>0.2390832920866626</v>
       </c>
       <c r="E6">
-        <v>0.6661456793842173</v>
+        <v>0.6661456077419116</v>
       </c>
       <c r="F6">
-        <v>590.960745526707</v>
+        <v>9.849346263029432</v>
       </c>
       <c r="G6">
-        <v>0.0001022237670484589</v>
+        <v>0.6686456077419115</v>
       </c>
       <c r="H6">
-        <v>4.097653979421778</v>
+        <v>0.006133429407760768</v>
+      </c>
+      <c r="I6">
+        <v>0.06829418930909058</v>
       </c>
     </row>
     <row r="7">
@@ -552,19 +572,22 @@
         <v>0.0005</v>
       </c>
       <c r="D7">
-        <v>0.01018734037171302</v>
+        <v>0.6112311956616965</v>
       </c>
       <c r="E7">
-        <v>0.3218426226785311</v>
+        <v>0.321842997529613</v>
       </c>
       <c r="F7">
-        <v>378.8501296596683</v>
+        <v>6.314174204870753</v>
       </c>
       <c r="G7">
-        <v>0.000569418128989761</v>
+        <v>0.322342997529613</v>
       </c>
       <c r="H7">
-        <v>4.300993554639975</v>
+        <v>0.03416434647214232</v>
+      </c>
+      <c r="I7">
+        <v>0.07168371830678827</v>
       </c>
     </row>
     <row r="8">
@@ -580,19 +603,22 @@
         <v>0.00275</v>
       </c>
       <c r="D8">
-        <v>0.005623613877324726</v>
+        <v>0.3374166575236221</v>
       </c>
       <c r="E8">
-        <v>0.3188857273340862</v>
+        <v>0.3188857462752472</v>
       </c>
       <c r="F8">
-        <v>599.8131223693442</v>
+        <v>9.996884799125979</v>
       </c>
       <c r="G8">
-        <v>0.0001082952810499487</v>
+        <v>0.3216357462752472</v>
       </c>
       <c r="H8">
-        <v>2.285511029593195</v>
+        <v>0.006497713178479164</v>
+      </c>
+      <c r="I8">
+        <v>0.03809186384893615</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +634,22 @@
         <v>0.0005</v>
       </c>
       <c r="D9">
-        <v>0.002264836685014883</v>
+        <v>0.1358891233223975</v>
       </c>
       <c r="E9">
-        <v>0.4526546571154021</v>
+        <v>0.4526575625862904</v>
       </c>
       <c r="F9">
-        <v>1121.501529304377</v>
+        <v>18.69174304550536</v>
       </c>
       <c r="G9">
-        <v>0.0002726724633973078</v>
+        <v>0.4531575625862904</v>
       </c>
       <c r="H9">
-        <v>61.94316372906011</v>
+        <v>0.01636027569620039</v>
+      </c>
+      <c r="I9">
+        <v>1.032403168899512</v>
       </c>
     </row>
     <row r="10">
@@ -636,19 +665,22 @@
         <v>0.00275</v>
       </c>
       <c r="D10">
-        <v>0.01046028728493948</v>
+        <v>0.6276492415868968</v>
       </c>
       <c r="E10">
-        <v>0.234592438719918</v>
+        <v>0.2345913963578161</v>
       </c>
       <c r="F10">
-        <v>506.6782166221404</v>
+        <v>8.444618332054414</v>
       </c>
       <c r="G10">
-        <v>0.001131067762045917</v>
+        <v>0.2373413963578161</v>
       </c>
       <c r="H10">
-        <v>8.010320006790792</v>
+        <v>0.06786898068983213</v>
+      </c>
+      <c r="I10">
+        <v>0.1335022502228894</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +696,22 @@
         <v>0.003</v>
       </c>
       <c r="D11">
-        <v>0.00796845310726106</v>
+        <v>0.4781069183560397</v>
       </c>
       <c r="E11">
-        <v>0.382415800347599</v>
+        <v>0.3824158567721856</v>
       </c>
       <c r="F11">
-        <v>472.8686711326177</v>
+        <v>7.881147060631095</v>
       </c>
       <c r="G11">
-        <v>0.0002906028187964611</v>
+        <v>0.3854158567721856</v>
       </c>
       <c r="H11">
-        <v>3.42122498649108</v>
+        <v>0.0174361548999945</v>
+      </c>
+      <c r="I11">
+        <v>0.05702042675397663</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +727,22 @@
         <v>0.00075</v>
       </c>
       <c r="D12">
-        <v>0.006645181310834795</v>
+        <v>0.3987095305500589</v>
       </c>
       <c r="E12">
-        <v>0.2931318275379375</v>
+        <v>0.2931318836457604</v>
       </c>
       <c r="F12">
-        <v>582.8598932489917</v>
+        <v>9.714325423737966</v>
       </c>
       <c r="G12">
-        <v>0.000297108743682133</v>
+        <v>0.2938818836457603</v>
       </c>
       <c r="H12">
-        <v>4.707317502906772</v>
+        <v>0.01782645293863653</v>
+      </c>
+      <c r="I12">
+        <v>0.07845544887435174</v>
       </c>
     </row>
     <row r="13">
@@ -720,19 +758,22 @@
         <v>0.00225</v>
       </c>
       <c r="D13">
-        <v>0.005850876225427069</v>
+        <v>0.3510525537644114</v>
       </c>
       <c r="E13">
-        <v>0.7908943331086352</v>
+        <v>0.7908943371570065</v>
       </c>
       <c r="F13">
-        <v>570.6155672559626</v>
+        <v>9.510259374402645</v>
       </c>
       <c r="G13">
-        <v>3.995949174988799E-05</v>
+        <v>0.7931443371570065</v>
       </c>
       <c r="H13">
-        <v>0.7934594840925342</v>
+        <v>0.002397569345175296</v>
+      </c>
+      <c r="I13">
+        <v>0.01322432525378825</v>
       </c>
     </row>
     <row r="14">
@@ -748,19 +789,22 @@
         <v>0.00275</v>
       </c>
       <c r="D14">
-        <v>0.008352209753847577</v>
+        <v>0.5011319867744191</v>
       </c>
       <c r="E14">
-        <v>0.5448175026556671</v>
+        <v>0.5448175351457801</v>
       </c>
       <c r="F14">
-        <v>613.5705413400209</v>
+        <v>10.22617405510349</v>
       </c>
       <c r="G14">
-        <v>0.0002797826946249172</v>
+        <v>0.5475675351457802</v>
       </c>
       <c r="H14">
-        <v>2.934943572484016</v>
+        <v>0.01678693583219298</v>
+      </c>
+      <c r="I14">
+        <v>0.0489157578346433</v>
       </c>
     </row>
     <row r="15">
@@ -776,19 +820,22 @@
         <v>0.0015</v>
       </c>
       <c r="D15">
-        <v>0.008505543810639424</v>
+        <v>0.5103530449181888</v>
       </c>
       <c r="E15">
-        <v>0.3084813259199506</v>
+        <v>0.3084798661927337</v>
       </c>
       <c r="F15">
-        <v>542.0371343612261</v>
+        <v>9.033931510755158</v>
       </c>
       <c r="G15">
-        <v>0.0007748491355755253</v>
+        <v>0.3099798661927337</v>
       </c>
       <c r="H15">
-        <v>7.994519866203321</v>
+        <v>0.04649346781957311</v>
+      </c>
+      <c r="I15">
+        <v>0.1332395708832978</v>
       </c>
     </row>
     <row r="16">
@@ -804,19 +851,22 @@
         <v>0.00125</v>
       </c>
       <c r="D16">
-        <v>0.008903142402196829</v>
+        <v>0.5341859972172598</v>
       </c>
       <c r="E16">
-        <v>0.2072036034000724</v>
+        <v>0.2072036739153458</v>
       </c>
       <c r="F16">
-        <v>467.1851318432956</v>
+        <v>7.786417082223752</v>
       </c>
       <c r="G16">
-        <v>0.0003257970816270151</v>
+        <v>0.2084536739153458</v>
       </c>
       <c r="H16">
-        <v>3.132751955071076</v>
+        <v>0.01954769699959859</v>
+      </c>
+      <c r="I16">
+        <v>0.05221265177247381</v>
       </c>
     </row>
     <row r="17">
@@ -832,19 +882,22 @@
         <v>0.0015</v>
       </c>
       <c r="D17">
-        <v>0.01019753907061819</v>
+        <v>0.6118539905705689</v>
       </c>
       <c r="E17">
-        <v>0.2382397864852586</v>
+        <v>0.2382397719545181</v>
       </c>
       <c r="F17">
-        <v>478.3725273132742</v>
+        <v>7.972879314879957</v>
       </c>
       <c r="G17">
-        <v>0.0003530244509412667</v>
+        <v>0.2397397719545181</v>
       </c>
       <c r="H17">
-        <v>2.63199298544007</v>
+        <v>0.02118154569222984</v>
+      </c>
+      <c r="I17">
+        <v>0.04386648937071879</v>
       </c>
     </row>
     <row r="18">
@@ -860,19 +913,22 @@
         <v>0.00125</v>
       </c>
       <c r="D18">
-        <v>0.00656792492219141</v>
+        <v>0.3940755531488831</v>
       </c>
       <c r="E18">
-        <v>0.4294887641949742</v>
+        <v>0.429488759839379</v>
       </c>
       <c r="F18">
-        <v>569.7692707888657</v>
+        <v>9.496154739446615</v>
       </c>
       <c r="G18">
-        <v>0.0001375176845835012</v>
+        <v>0.4307387598393789</v>
       </c>
       <c r="H18">
-        <v>2.232197336028281</v>
+        <v>0.008251062503650439</v>
+      </c>
+      <c r="I18">
+        <v>0.03720328563878584</v>
       </c>
     </row>
     <row r="19">
@@ -888,19 +944,22 @@
         <v>0.001</v>
       </c>
       <c r="D19">
-        <v>0.01241709104485776</v>
+        <v>0.7450667436981269</v>
       </c>
       <c r="E19">
-        <v>0.2515248173220031</v>
+        <v>0.251524012678828</v>
       </c>
       <c r="F19">
-        <v>494.6355338035107</v>
+        <v>8.243929130630802</v>
       </c>
       <c r="G19">
-        <v>0.002349524153817991</v>
+        <v>0.252524012678828</v>
       </c>
       <c r="H19">
-        <v>12.04406282073811</v>
+        <v>0.1409826920287789</v>
+      </c>
+      <c r="I19">
+        <v>0.2007291647001325</v>
       </c>
     </row>
     <row r="20">
@@ -916,19 +975,22 @@
         <v>0.00125</v>
       </c>
       <c r="D20">
-        <v>0.005738863807284774</v>
+        <v>0.3443320260495743</v>
       </c>
       <c r="E20">
-        <v>0.3732665638548296</v>
+        <v>0.3732665411206729</v>
       </c>
       <c r="F20">
-        <v>596.9707726934081</v>
+        <v>9.949513571766293</v>
       </c>
       <c r="G20">
-        <v>0.0001000070027718345</v>
+        <v>0.3745165411206729</v>
       </c>
       <c r="H20">
-        <v>2.038423164444596</v>
+        <v>0.006000424049978495</v>
+      </c>
+      <c r="I20">
+        <v>0.0339737065216369</v>
       </c>
     </row>
     <row r="21">
@@ -944,19 +1006,22 @@
         <v>0.00075</v>
       </c>
       <c r="D21">
-        <v>0.006573109763421742</v>
+        <v>0.3943880023231733</v>
       </c>
       <c r="E21">
-        <v>0.2657657218489961</v>
+        <v>0.2657656782123864</v>
       </c>
       <c r="F21">
-        <v>588.4450264394853</v>
+        <v>9.807424643904275</v>
       </c>
       <c r="G21">
-        <v>0.0002360360118226859</v>
+        <v>0.2665156782123864</v>
       </c>
       <c r="H21">
-        <v>3.805455259999701</v>
+        <v>0.0141622206799959</v>
+      </c>
+      <c r="I21">
+        <v>0.06342411608794903</v>
       </c>
     </row>
     <row r="22">
@@ -972,19 +1037,22 @@
         <v>0.001</v>
       </c>
       <c r="D22">
-        <v>0.00725341436022672</v>
+        <v>0.4352056763175901</v>
       </c>
       <c r="E22">
-        <v>0.2928249254559401</v>
+        <v>0.2928248911772954</v>
       </c>
       <c r="F22">
-        <v>562.1008820127919</v>
+        <v>9.368350621970333</v>
       </c>
       <c r="G22">
-        <v>0.000241112028278765</v>
+        <v>0.2938248911772954</v>
       </c>
       <c r="H22">
-        <v>3.293835472549318</v>
+        <v>0.01446675530846937</v>
+      </c>
+      <c r="I22">
+        <v>0.0548972018933985</v>
       </c>
     </row>
     <row r="23">
@@ -1000,19 +1068,22 @@
         <v>0.0005</v>
       </c>
       <c r="D23">
-        <v>0.002250893144301671</v>
+        <v>0.1350534920983892</v>
       </c>
       <c r="E23">
-        <v>0.7575962968308115</v>
+        <v>0.7575967020035603</v>
       </c>
       <c r="F23">
-        <v>850.8402844816135</v>
+        <v>14.18067619792167</v>
       </c>
       <c r="G23">
-        <v>9.114893987036352E-05</v>
+        <v>0.7580967020035603</v>
       </c>
       <c r="H23">
-        <v>16.61598080611332</v>
+        <v>0.005468934199734294</v>
+      </c>
+      <c r="I23">
+        <v>0.2769334557922974</v>
       </c>
     </row>
     <row r="24">
@@ -1028,19 +1099,22 @@
         <v>0.00225</v>
       </c>
       <c r="D24">
-        <v>0.002637101819170901</v>
+        <v>0.1582263584445286</v>
       </c>
       <c r="E24">
-        <v>0.4673316883594743</v>
+        <v>0.4673309925617499</v>
       </c>
       <c r="F24">
-        <v>910.5735569179376</v>
+        <v>15.17621299646105</v>
       </c>
       <c r="G24">
-        <v>0.0002252696048026747</v>
+        <v>0.4695809925617498</v>
       </c>
       <c r="H24">
-        <v>29.14519430256038</v>
+        <v>0.01351618721955965</v>
+      </c>
+      <c r="I24">
+        <v>0.4857513614365926</v>
       </c>
     </row>
     <row r="25">
@@ -1056,19 +1130,22 @@
         <v>0.0015</v>
       </c>
       <c r="D25">
-        <v>0.008009840919207471</v>
+        <v>0.480590982617857</v>
       </c>
       <c r="E25">
-        <v>0.2731055909841237</v>
+        <v>0.2731055775770895</v>
       </c>
       <c r="F25">
-        <v>493.8301804386351</v>
+        <v>8.230504588377071</v>
       </c>
       <c r="G25">
-        <v>0.0002967585860931944</v>
+        <v>0.2746055775770895</v>
       </c>
       <c r="H25">
-        <v>3.447202148279335</v>
+        <v>0.0178055407933274</v>
+      </c>
+      <c r="I25">
+        <v>0.05745333614183951</v>
       </c>
     </row>
     <row r="26">
@@ -1084,19 +1161,22 @@
         <v>0.00175</v>
       </c>
       <c r="D26">
-        <v>0.003697594001521418</v>
+        <v>0.2218556394386107</v>
       </c>
       <c r="E26">
-        <v>0.4057524937976356</v>
+        <v>0.4057524941814966</v>
       </c>
       <c r="F26">
-        <v>708.719025897203</v>
+        <v>11.81198376802669</v>
       </c>
       <c r="G26">
-        <v>5.046875101642376E-05</v>
+        <v>0.4075024941814965</v>
       </c>
       <c r="H26">
-        <v>2.42981629551225</v>
+        <v>0.003028125082820281</v>
+      </c>
+      <c r="I26">
+        <v>0.04049693845883645</v>
       </c>
     </row>
     <row r="27">
@@ -1112,19 +1192,22 @@
         <v>0.00225</v>
       </c>
       <c r="D27">
-        <v>0.0006074302780987769</v>
+        <v>0.03644579700657151</v>
       </c>
       <c r="E27">
-        <v>5.383054092613088</v>
+        <v>5.383065679575404</v>
       </c>
       <c r="F27">
-        <v>3203.254250529898</v>
+        <v>53.38760650705054</v>
       </c>
       <c r="G27">
-        <v>0.0001056215763351543</v>
+        <v>5.385315679575404</v>
       </c>
       <c r="H27">
-        <v>664.5314931855182</v>
+        <v>0.006337293696330864</v>
+      </c>
+      <c r="I27">
+        <v>11.07553788375733</v>
       </c>
     </row>
     <row r="28">
@@ -1140,19 +1223,22 @@
         <v>0.0005</v>
       </c>
       <c r="D28">
-        <v>0.006671490644422616</v>
+        <v>0.4002839168949422</v>
       </c>
       <c r="E28">
-        <v>0.3042052893930757</v>
+        <v>0.3042062811406596</v>
       </c>
       <c r="F28">
-        <v>698.9275494563424</v>
+        <v>11.64881287517875</v>
       </c>
       <c r="G28">
-        <v>0.0004586338790867124</v>
+        <v>0.3047062811406596</v>
       </c>
       <c r="H28">
-        <v>6.957554587416097</v>
+        <v>0.0275175933699078</v>
+      </c>
+      <c r="I28">
+        <v>0.1159601419840892</v>
       </c>
     </row>
     <row r="29">
@@ -1168,19 +1254,22 @@
         <v>0.00225</v>
       </c>
       <c r="D29">
-        <v>0.003990307594481827</v>
+        <v>0.2394180526162693</v>
       </c>
       <c r="E29">
-        <v>0.366437195681257</v>
+        <v>0.3664373278034457</v>
       </c>
       <c r="F29">
-        <v>694.9415148967233</v>
+        <v>11.58235776880007</v>
       </c>
       <c r="G29">
-        <v>0.0001227579968533273</v>
+        <v>0.3686873278034457</v>
       </c>
       <c r="H29">
-        <v>4.964872091378497</v>
+        <v>0.007365468850524797</v>
+      </c>
+      <c r="I29">
+        <v>0.08274804625514472</v>
       </c>
     </row>
     <row r="30">
@@ -1196,19 +1285,22 @@
         <v>0.00175</v>
       </c>
       <c r="D30">
-        <v>0.005231790345068816</v>
+        <v>0.313907550793496</v>
       </c>
       <c r="E30">
-        <v>0.2252154805485248</v>
+        <v>0.2252154681750368</v>
       </c>
       <c r="F30">
-        <v>699.3549819109943</v>
+        <v>11.65591686558629</v>
       </c>
       <c r="G30">
-        <v>0.0002240021925529323</v>
+        <v>0.2269654681750368</v>
       </c>
       <c r="H30">
-        <v>5.254437383870387</v>
+        <v>0.01344013724378851</v>
+      </c>
+      <c r="I30">
+        <v>0.08757392511808013</v>
       </c>
     </row>
     <row r="31">
@@ -1224,19 +1316,22 @@
         <v>0.00075</v>
       </c>
       <c r="D31">
-        <v>0.005837209097587255</v>
+        <v>0.3502320487647915</v>
       </c>
       <c r="E31">
-        <v>0.5121991622948113</v>
+        <v>0.5121992292540017</v>
       </c>
       <c r="F31">
-        <v>590.7048534589346</v>
+        <v>9.845078843318031</v>
       </c>
       <c r="G31">
-        <v>0.0001538049336256856</v>
+        <v>0.5129492292540018</v>
       </c>
       <c r="H31">
-        <v>3.048667395692913</v>
+        <v>0.009228281365098312</v>
+      </c>
+      <c r="I31">
+        <v>0.05081117026557677</v>
       </c>
     </row>
     <row r="32">
@@ -1252,19 +1347,22 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.002159485428898943</v>
+        <v>0.1295691569489596</v>
       </c>
       <c r="E32">
-        <v>0.8622136477275784</v>
+        <v>0.8622135910082747</v>
       </c>
       <c r="F32">
-        <v>992.4480143217916</v>
+        <v>16.54079999416029</v>
       </c>
       <c r="G32">
-        <v>7.57611470641943E-05</v>
+        <v>0.8622135910082747</v>
       </c>
       <c r="H32">
-        <v>17.18937103728916</v>
+        <v>0.004545669653762619</v>
+      </c>
+      <c r="I32">
+        <v>0.2864893988304092</v>
       </c>
     </row>
     <row r="33">
@@ -1280,19 +1378,22 @@
         <v>0.0025</v>
       </c>
       <c r="D33">
-        <v>0.002883887546897838</v>
+        <v>0.1730336160945743</v>
       </c>
       <c r="E33">
-        <v>0.5309399617815425</v>
+        <v>0.5309390348545547</v>
       </c>
       <c r="F33">
-        <v>902.334302646783</v>
+        <v>15.03889091392934</v>
       </c>
       <c r="G33">
-        <v>0.0001534173829106665</v>
+        <v>0.5334390348545547</v>
       </c>
       <c r="H33">
-        <v>15.73096568281333</v>
+        <v>0.009205053720956639</v>
+      </c>
+      <c r="I33">
+        <v>0.2621814649110045</v>
       </c>
     </row>
     <row r="34">
@@ -1308,19 +1409,22 @@
         <v>0.001</v>
       </c>
       <c r="D34">
-        <v>0.004970765135005055</v>
+        <v>0.2982464866022669</v>
       </c>
       <c r="E34">
-        <v>0.5173898957523375</v>
+        <v>0.5173896740612988</v>
       </c>
       <c r="F34">
-        <v>670.1183777605241</v>
+        <v>11.1686389680516</v>
       </c>
       <c r="G34">
-        <v>0.000150703017432197</v>
+        <v>0.5183896740612988</v>
       </c>
       <c r="H34">
-        <v>3.909670661866942</v>
+        <v>0.009042198517340885</v>
+      </c>
+      <c r="I34">
+        <v>0.06516106698773558</v>
       </c>
     </row>
     <row r="35">
@@ -1336,19 +1440,22 @@
         <v>0.00075</v>
       </c>
       <c r="D35">
-        <v>0.004055447684816667</v>
+        <v>0.2433270172853314</v>
       </c>
       <c r="E35">
-        <v>0.3677563725898665</v>
+        <v>0.3677563287292087</v>
       </c>
       <c r="F35">
-        <v>730.9852818646679</v>
+        <v>12.18308866278924</v>
       </c>
       <c r="G35">
-        <v>0.0001262084669012573</v>
+        <v>0.3685063287292086</v>
       </c>
       <c r="H35">
-        <v>4.973169049969902</v>
+        <v>0.007572512315428139</v>
+      </c>
+      <c r="I35">
+        <v>0.08288608092386679</v>
       </c>
     </row>
     <row r="36">
@@ -1364,19 +1471,22 @@
         <v>0.001</v>
       </c>
       <c r="D36">
-        <v>0.001219634286358005</v>
+        <v>0.07317811421949873</v>
       </c>
       <c r="E36">
-        <v>0.8988939438126022</v>
+        <v>0.8988932849579266</v>
       </c>
       <c r="F36">
-        <v>1497.455191671805</v>
+        <v>24.95757530700185</v>
       </c>
       <c r="G36">
-        <v>0.0001259083173474709</v>
+        <v>0.8998932849579266</v>
       </c>
       <c r="H36">
-        <v>135.7823042389205</v>
+        <v>0.0075545025101281</v>
+      </c>
+      <c r="I36">
+        <v>2.263035243719172</v>
       </c>
     </row>
     <row r="37">
@@ -1392,19 +1502,22 @@
         <v>0.0035</v>
       </c>
       <c r="D37">
-        <v>0.006036496676730779</v>
+        <v>0.3621836141251021</v>
       </c>
       <c r="E37">
-        <v>0.2895372377738034</v>
+        <v>0.2895382736688918</v>
       </c>
       <c r="F37">
-        <v>700.6537644370732</v>
+        <v>11.67757334832272</v>
       </c>
       <c r="G37">
-        <v>0.0004669772339712274</v>
+        <v>0.2930382736688918</v>
       </c>
       <c r="H37">
-        <v>8.443389649697648</v>
+        <v>0.02801811336128404</v>
+      </c>
+      <c r="I37">
+        <v>0.1407247904816052</v>
       </c>
     </row>
     <row r="38">
@@ -1420,19 +1533,22 @@
         <v>0.002</v>
       </c>
       <c r="D38">
-        <v>0.004621125316437928</v>
+        <v>0.2772599567450295</v>
       </c>
       <c r="E38">
-        <v>0.01850041936898285</v>
+        <v>0.01850055290810391</v>
       </c>
       <c r="F38">
-        <v>596.7036968296979</v>
+        <v>9.94509770917645</v>
       </c>
       <c r="G38">
-        <v>0.000825650881143727</v>
+        <v>0.02050055290810391</v>
       </c>
       <c r="H38">
-        <v>24.83790587908545</v>
+        <v>0.04953768971581166</v>
+      </c>
+      <c r="I38">
+        <v>0.4139746159990924</v>
       </c>
     </row>
     <row r="39">
@@ -1448,19 +1564,22 @@
         <v>0.001</v>
       </c>
       <c r="D39">
-        <v>0.007990290328205838</v>
+        <v>0.4794178509906744</v>
       </c>
       <c r="E39">
-        <v>0.01168575253172274</v>
+        <v>0.01168575216276229</v>
       </c>
       <c r="F39">
-        <v>337.1583732725182</v>
+        <v>5.619307595293093</v>
       </c>
       <c r="G39">
-        <v>0.001564683721908058</v>
+        <v>0.01268575216276229</v>
       </c>
       <c r="H39">
-        <v>18.72455798786302</v>
+        <v>0.09388113741878767</v>
+      </c>
+      <c r="I39">
+        <v>0.31207582693318</v>
       </c>
     </row>
     <row r="40">
@@ -1476,19 +1595,22 @@
         <v>0.0015</v>
       </c>
       <c r="D40">
-        <v>0.006571916801779618</v>
+        <v>0.3943124558447699</v>
       </c>
       <c r="E40">
-        <v>0.01933395142719601</v>
+        <v>0.01933393628324955</v>
       </c>
       <c r="F40">
-        <v>377.2353433264684</v>
+        <v>6.28721208164355</v>
       </c>
       <c r="G40">
-        <v>0.0008791203114787236</v>
+        <v>0.02083393628324955</v>
       </c>
       <c r="H40">
-        <v>14.92376368671568</v>
+        <v>0.05274681105459945</v>
+      </c>
+      <c r="I40">
+        <v>0.2487304880073675</v>
       </c>
     </row>
     <row r="41">
@@ -1504,19 +1626,22 @@
         <v>0.00375</v>
       </c>
       <c r="D41">
-        <v>0.001184432376822685</v>
+        <v>0.07106961105685292</v>
       </c>
       <c r="E41">
-        <v>0.2322008131451308</v>
+        <v>0.2321823541331432</v>
       </c>
       <c r="F41">
-        <v>1238.463177966295</v>
+        <v>20.63994232235422</v>
       </c>
       <c r="G41">
-        <v>0.0002152440481684059</v>
+        <v>0.2359323541331432</v>
       </c>
       <c r="H41">
-        <v>216.1111051765582</v>
+        <v>0.01291479542220171</v>
+      </c>
+      <c r="I41">
+        <v>3.601390927165199</v>
       </c>
     </row>
     <row r="42">
@@ -1532,19 +1657,22 @@
         <v>0.0005</v>
       </c>
       <c r="D42">
-        <v>0.002956696946497338</v>
+        <v>0.1774011923648559</v>
       </c>
       <c r="E42">
-        <v>0.06797145654148826</v>
+        <v>0.06797157891082398</v>
       </c>
       <c r="F42">
-        <v>844.5319753556695</v>
+        <v>14.07554379906706</v>
       </c>
       <c r="G42">
-        <v>0.0001331330447096893</v>
+        <v>0.06847157891082398</v>
       </c>
       <c r="H42">
-        <v>12.15353269174695</v>
+        <v>0.00798796374682373</v>
+      </c>
+      <c r="I42">
+        <v>0.2025603203865683</v>
       </c>
     </row>
     <row r="43">
@@ -1560,19 +1688,22 @@
         <v>0.00125</v>
       </c>
       <c r="D43">
-        <v>0.0003915377583479922</v>
+        <v>0.02349232235890326</v>
       </c>
       <c r="E43">
-        <v>20.72292009764417</v>
+        <v>20.72261563793784</v>
       </c>
       <c r="F43">
-        <v>5842.560633655232</v>
+        <v>97.37572137376877</v>
       </c>
       <c r="G43">
-        <v>4.280673499988893E-05</v>
+        <v>20.72386563793783</v>
       </c>
       <c r="H43">
-        <v>801.0484658431699</v>
+        <v>0.002568403977668087</v>
+      </c>
+      <c r="I43">
+        <v>13.35073168246036</v>
       </c>
     </row>
     <row r="44">
@@ -1588,19 +1719,22 @@
         <v>0.00225</v>
       </c>
       <c r="D44">
-        <v>0.002737884991567029</v>
+        <v>0.1642737800725844</v>
       </c>
       <c r="E44">
-        <v>0.1390541347966394</v>
+        <v>0.1390537797739159</v>
       </c>
       <c r="F44">
-        <v>959.811901330565</v>
+        <v>15.99684823538609</v>
       </c>
       <c r="G44">
-        <v>0.0001406241358347584</v>
+        <v>0.1413037797739159</v>
       </c>
       <c r="H44">
-        <v>17.37039723318098</v>
+        <v>0.008437469625737845</v>
+      </c>
+      <c r="I44">
+        <v>0.2895040904112631</v>
       </c>
     </row>
     <row r="45">
@@ -1616,19 +1750,22 @@
         <v>0.00075</v>
       </c>
       <c r="D45">
-        <v>0.002101480841854606</v>
+        <v>0.1260888075904314</v>
       </c>
       <c r="E45">
-        <v>0.487873629096311</v>
+        <v>0.4878738708971476</v>
       </c>
       <c r="F45">
-        <v>1395.83353737639</v>
+        <v>23.26389614299181</v>
       </c>
       <c r="G45">
-        <v>5.191149726506528E-05</v>
+        <v>0.4886238708971475</v>
       </c>
       <c r="H45">
-        <v>17.63546030156738</v>
+        <v>0.003114689442153048</v>
+      </c>
+      <c r="I45">
+        <v>0.2939245608428524</v>
       </c>
     </row>
     <row r="46">
@@ -1644,19 +1781,22 @@
         <v>0.00175</v>
       </c>
       <c r="D46">
-        <v>0.005742941577792839</v>
+        <v>0.344631776639128</v>
       </c>
       <c r="E46">
-        <v>0.0133986004174466</v>
+        <v>0.0133983198717935</v>
       </c>
       <c r="F46">
-        <v>280.686942146815</v>
+        <v>4.678036423508125</v>
       </c>
       <c r="G46">
-        <v>0.001106300140047051</v>
+        <v>0.0151483198717935</v>
       </c>
       <c r="H46">
-        <v>24.31689326402631</v>
+        <v>0.06639164774392474</v>
+      </c>
+      <c r="I46">
+        <v>0.40525029069331</v>
       </c>
     </row>
     <row r="47">
@@ -1672,19 +1812,22 @@
         <v>0.0015</v>
       </c>
       <c r="D47">
-        <v>0.0008356395144986136</v>
+        <v>0.05013835286106932</v>
       </c>
       <c r="E47">
-        <v>2.273070986181613</v>
+        <v>2.273073645613646</v>
       </c>
       <c r="F47">
-        <v>2523.649084773984</v>
+        <v>42.06083383426786</v>
       </c>
       <c r="G47">
-        <v>8.243589534817245E-05</v>
+        <v>2.274573645613646</v>
       </c>
       <c r="H47">
-        <v>258.990020734771</v>
+        <v>0.004946153405854877</v>
+      </c>
+      <c r="I47">
+        <v>4.316503889354073</v>
       </c>
     </row>
     <row r="48">
@@ -1700,19 +1843,22 @@
         <v>0.00175</v>
       </c>
       <c r="D48">
-        <v>0.007011474114717266</v>
+        <v>0.4169058574270869</v>
       </c>
       <c r="E48">
-        <v>0.00776597183023931</v>
+        <v>0.007771189867729199</v>
       </c>
       <c r="F48">
-        <v>130.3167095219407</v>
+        <v>2.171495023944629</v>
       </c>
       <c r="G48">
-        <v>0.003031751071604747</v>
+        <v>0.009521189867729199</v>
       </c>
       <c r="H48">
-        <v>46.11422930535031</v>
+        <v>0.1800018749326186</v>
+      </c>
+      <c r="I48">
+        <v>0.772770361038827</v>
       </c>
     </row>
     <row r="49">
@@ -1728,19 +1874,22 @@
         <v>0.00075</v>
       </c>
       <c r="D49">
-        <v>0.002627594985682764</v>
+        <v>0.157655714379651</v>
       </c>
       <c r="E49">
-        <v>0.3423325052029283</v>
+        <v>0.3423324774678197</v>
       </c>
       <c r="F49">
-        <v>1112.394987415334</v>
+        <v>18.53991588790121</v>
       </c>
       <c r="G49">
-        <v>6.172444006054111E-05</v>
+        <v>0.3430824774678197</v>
       </c>
       <c r="H49">
-        <v>9.842254153032993</v>
+        <v>0.003703466590608651</v>
+      </c>
+      <c r="I49">
+        <v>0.1640375355072552</v>
       </c>
     </row>
     <row r="50">
@@ -1756,19 +1905,22 @@
         <v>0.00075</v>
       </c>
       <c r="D50">
-        <v>0.0006362167611054597</v>
+        <v>0.03817470499808228</v>
       </c>
       <c r="E50">
-        <v>3.114713208460164</v>
+        <v>3.114051445705589</v>
       </c>
       <c r="F50">
-        <v>3664.10320716399</v>
+        <v>61.06539098094724</v>
       </c>
       <c r="G50">
-        <v>0.0001756656686892972</v>
+        <v>3.114801445705589</v>
       </c>
       <c r="H50">
-        <v>1130.653114920774</v>
+        <v>0.01054003664976667</v>
+      </c>
+      <c r="I50">
+        <v>18.84240135488604</v>
       </c>
     </row>
     <row r="51">
@@ -1784,19 +1936,22 @@
         <v>0.00225</v>
       </c>
       <c r="D51">
-        <v>0.001270870892977343</v>
+        <v>0.07625227691300424</v>
       </c>
       <c r="E51">
-        <v>0.3099793050481581</v>
+        <v>0.3099792155897385</v>
       </c>
       <c r="F51">
-        <v>1496.889429388659</v>
+        <v>24.94815291919421</v>
       </c>
       <c r="G51">
-        <v>6.002700902668354E-05</v>
+        <v>0.3122292155897385</v>
       </c>
       <c r="H51">
-        <v>59.68014377318195</v>
+        <v>0.003601621271670879</v>
+      </c>
+      <c r="I51">
+        <v>0.9946685375268163</v>
       </c>
     </row>
     <row r="52">
@@ -1812,19 +1967,22 @@
         <v>0.00125</v>
       </c>
       <c r="D52">
-        <v>0.002229511005355597</v>
+        <v>0.1337707015766351</v>
       </c>
       <c r="E52">
-        <v>0.1239800433546174</v>
+        <v>0.1239799996990619</v>
       </c>
       <c r="F52">
-        <v>1281.347451897544</v>
+        <v>21.35578811429515</v>
       </c>
       <c r="G52">
-        <v>0.000120191237186804</v>
+        <v>0.1252299996990619</v>
       </c>
       <c r="H52">
-        <v>32.66638281060979</v>
+        <v>0.007211475272510964</v>
+      </c>
+      <c r="I52">
+        <v>0.544439351921384</v>
       </c>
     </row>
     <row r="53">
@@ -1840,18 +1998,1633 @@
         <v>0.00025</v>
       </c>
       <c r="D53">
+        <v>0.1006807540133546</v>
+      </c>
+      <c r="E53">
+        <v>0.04508557239435726</v>
+      </c>
+      <c r="F53">
+        <v>15.73003363262895</v>
+      </c>
+      <c r="G53">
+        <v>0.04533557239435726</v>
+      </c>
+      <c r="H53">
+        <v>0.02679940008329975</v>
+      </c>
+      <c r="I53">
+        <v>2.944921162444761</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>be5.am1.g</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0.00125</v>
+      </c>
+      <c r="D54">
+        <v>0.009368982846347976</v>
+      </c>
+      <c r="E54">
+        <v>0.2981631164065268</v>
+      </c>
+      <c r="F54">
+        <v>430.2225465709677</v>
+      </c>
+      <c r="G54">
+        <v>0.2994131164065267</v>
+      </c>
+      <c r="H54">
+        <v>0.0005527392906174015</v>
+      </c>
+      <c r="I54">
+        <v>4.859521521874226</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>be6.ext3.d1</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.00175</v>
+      </c>
+      <c r="D55">
+        <v>0.008820273683673956</v>
+      </c>
+      <c r="E55">
+        <v>0.2822471124724504</v>
+      </c>
+      <c r="F55">
+        <v>420.0999147811544</v>
+      </c>
+      <c r="G55">
+        <v>0.2839971124724504</v>
+      </c>
+      <c r="H55">
+        <v>0.0002926724179979696</v>
+      </c>
+      <c r="I55">
+        <v>2.883201472133951</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>be6.ext3.d2</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.0015</v>
+      </c>
+      <c r="D56">
+        <v>0.00732284341365226</v>
+      </c>
+      <c r="E56">
+        <v>0.4717857158521261</v>
+      </c>
+      <c r="F56">
+        <v>495.0129546894116</v>
+      </c>
+      <c r="G56">
+        <v>0.4732857158521261</v>
+      </c>
+      <c r="H56">
+        <v>0.0003856560454194946</v>
+      </c>
+      <c r="I56">
+        <v>5.264013737100448</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>colb</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.00075</v>
+      </c>
+      <c r="D57">
+        <v>0.006013246811376247</v>
+      </c>
+      <c r="E57">
+        <v>0.4279389979755698</v>
+      </c>
+      <c r="F57">
+        <v>496.4590467306924</v>
+      </c>
+      <c r="G57">
+        <v>0.4286889979755698</v>
+      </c>
+      <c r="H57">
+        <v>8.944887745508936E-05</v>
+      </c>
+      <c r="I57">
+        <v>1.728580099891891</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>lv7.am1.l</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.0025</v>
+      </c>
+      <c r="D58">
+        <v>0.003984719160481888</v>
+      </c>
+      <c r="E58">
+        <v>0.6661456793842173</v>
+      </c>
+      <c r="F58">
+        <v>590.960745526707</v>
+      </c>
+      <c r="G58">
+        <v>0.6686456793842173</v>
+      </c>
+      <c r="H58">
+        <v>0.0001022237670484589</v>
+      </c>
+      <c r="I58">
+        <v>4.097653979421778</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>lv7.am3.b</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.0005</v>
+      </c>
+      <c r="D59">
+        <v>0.01018734037171302</v>
+      </c>
+      <c r="E59">
+        <v>0.3218426226785311</v>
+      </c>
+      <c r="F59">
+        <v>378.8501296596683</v>
+      </c>
+      <c r="G59">
+        <v>0.3223426226785311</v>
+      </c>
+      <c r="H59">
+        <v>0.000569418128989761</v>
+      </c>
+      <c r="I59">
+        <v>4.300993554639975</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>p4d</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0.00275</v>
+      </c>
+      <c r="D60">
+        <v>0.005623613877324726</v>
+      </c>
+      <c r="E60">
+        <v>0.3188857273340862</v>
+      </c>
+      <c r="F60">
+        <v>599.8131223693442</v>
+      </c>
+      <c r="G60">
+        <v>0.3216357273340862</v>
+      </c>
+      <c r="H60">
+        <v>0.0001082952810499487</v>
+      </c>
+      <c r="I60">
+        <v>2.285511029593195</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>tbe2.ext2.g</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.0005</v>
+      </c>
+      <c r="D61">
+        <v>0.002264836685014883</v>
+      </c>
+      <c r="E61">
+        <v>0.4526546571154021</v>
+      </c>
+      <c r="F61">
+        <v>1121.501529304377</v>
+      </c>
+      <c r="G61">
+        <v>0.4531546571154021</v>
+      </c>
+      <c r="H61">
+        <v>0.0002726724633973078</v>
+      </c>
+      <c r="I61">
+        <v>61.94316372906011</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>tbe2.sob.d</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.00275</v>
+      </c>
+      <c r="D62">
+        <v>0.01046028728493948</v>
+      </c>
+      <c r="E62">
+        <v>0.234592438719918</v>
+      </c>
+      <c r="F62">
+        <v>506.6782166221404</v>
+      </c>
+      <c r="G62">
+        <v>0.237342438719918</v>
+      </c>
+      <c r="H62">
+        <v>0.001131067762045917</v>
+      </c>
+      <c r="I62">
+        <v>8.010320006790792</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>tbe4.am2.d</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.003</v>
+      </c>
+      <c r="D63">
+        <v>0.00796845310726106</v>
+      </c>
+      <c r="E63">
+        <v>0.382415800347599</v>
+      </c>
+      <c r="F63">
+        <v>472.8686711326177</v>
+      </c>
+      <c r="G63">
+        <v>0.385415800347599</v>
+      </c>
+      <c r="H63">
+        <v>0.0002906028187964611</v>
+      </c>
+      <c r="I63">
+        <v>3.42122498649108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>tbe4.ext1.b2</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.00075</v>
+      </c>
+      <c r="D64">
+        <v>0.006645181310834795</v>
+      </c>
+      <c r="E64">
+        <v>0.2931318275379375</v>
+      </c>
+      <c r="F64">
+        <v>582.8598932489917</v>
+      </c>
+      <c r="G64">
+        <v>0.2938818275379375</v>
+      </c>
+      <c r="H64">
+        <v>0.000297108743682133</v>
+      </c>
+      <c r="I64">
+        <v>4.707317502906772</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>tbe5.am1.d</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.00225</v>
+      </c>
+      <c r="D65">
+        <v>0.005850876225427069</v>
+      </c>
+      <c r="E65">
+        <v>0.7908943331086352</v>
+      </c>
+      <c r="F65">
+        <v>570.6155672559626</v>
+      </c>
+      <c r="G65">
+        <v>0.7931443331086352</v>
+      </c>
+      <c r="H65">
+        <v>3.995949174988799E-05</v>
+      </c>
+      <c r="I65">
+        <v>0.7934594840925342</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>tbe5.am1.e</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.00275</v>
+      </c>
+      <c r="D66">
+        <v>0.008352209753847577</v>
+      </c>
+      <c r="E66">
+        <v>0.5448175026556671</v>
+      </c>
+      <c r="F66">
+        <v>613.5705413400209</v>
+      </c>
+      <c r="G66">
+        <v>0.5475675026556671</v>
+      </c>
+      <c r="H66">
+        <v>0.0002797826946249172</v>
+      </c>
+      <c r="I66">
+        <v>2.934943572484016</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>tlv6.am1.j</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0.0015</v>
+      </c>
+      <c r="D67">
+        <v>0.008505543810639424</v>
+      </c>
+      <c r="E67">
+        <v>0.3084813259199506</v>
+      </c>
+      <c r="F67">
+        <v>542.0371343612261</v>
+      </c>
+      <c r="G67">
+        <v>0.3099813259199506</v>
+      </c>
+      <c r="H67">
+        <v>0.0007748491355755253</v>
+      </c>
+      <c r="I67">
+        <v>7.994519866203321</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>tlv7.am1.c</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0.00125</v>
+      </c>
+      <c r="D68">
+        <v>0.008903142402196829</v>
+      </c>
+      <c r="E68">
+        <v>0.2072036034000724</v>
+      </c>
+      <c r="F68">
+        <v>467.1851318432956</v>
+      </c>
+      <c r="G68">
+        <v>0.2084536034000724</v>
+      </c>
+      <c r="H68">
+        <v>0.0003257970816270151</v>
+      </c>
+      <c r="I68">
+        <v>3.132751955071076</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>tlv7.am1.e</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.0015</v>
+      </c>
+      <c r="D69">
+        <v>0.01019753907061819</v>
+      </c>
+      <c r="E69">
+        <v>0.2382397864852586</v>
+      </c>
+      <c r="F69">
+        <v>478.3725273132742</v>
+      </c>
+      <c r="G69">
+        <v>0.2397397864852586</v>
+      </c>
+      <c r="H69">
+        <v>0.0003530244509412667</v>
+      </c>
+      <c r="I69">
+        <v>2.63199298544007</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>tlv7.am4.h</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0.00125</v>
+      </c>
+      <c r="D70">
+        <v>0.00656792492219141</v>
+      </c>
+      <c r="E70">
+        <v>0.4294887641949742</v>
+      </c>
+      <c r="F70">
+        <v>569.7692707888657</v>
+      </c>
+      <c r="G70">
+        <v>0.4307387641949741</v>
+      </c>
+      <c r="H70">
+        <v>0.0001375176845835012</v>
+      </c>
+      <c r="I70">
+        <v>2.232197336028281</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>tlv7.ext2.k</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.001</v>
+      </c>
+      <c r="D71">
+        <v>0.01241709104485776</v>
+      </c>
+      <c r="E71">
+        <v>0.2515248173220031</v>
+      </c>
+      <c r="F71">
+        <v>494.6355338035107</v>
+      </c>
+      <c r="G71">
+        <v>0.2525248173220031</v>
+      </c>
+      <c r="H71">
+        <v>0.002349524153817991</v>
+      </c>
+      <c r="I71">
+        <v>12.04406282073811</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>be5.am1.g</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="C72">
+        <v>0.00125</v>
+      </c>
+      <c r="D72">
+        <v>0.005738863807284774</v>
+      </c>
+      <c r="E72">
+        <v>0.3732665638548296</v>
+      </c>
+      <c r="F72">
+        <v>596.9707726934081</v>
+      </c>
+      <c r="G72">
+        <v>0.3745165638548296</v>
+      </c>
+      <c r="H72">
+        <v>0.0001000070027718345</v>
+      </c>
+      <c r="I72">
+        <v>2.038423164444596</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>be6.ext3.d1</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.1</v>
+      </c>
+      <c r="C73">
+        <v>0.00075</v>
+      </c>
+      <c r="D73">
+        <v>0.006573109763421742</v>
+      </c>
+      <c r="E73">
+        <v>0.2657657218489961</v>
+      </c>
+      <c r="F73">
+        <v>588.4450264394853</v>
+      </c>
+      <c r="G73">
+        <v>0.266515721848996</v>
+      </c>
+      <c r="H73">
+        <v>0.0002360360118226859</v>
+      </c>
+      <c r="I73">
+        <v>3.805455259999701</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>be6.ext3.d2</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0.1</v>
+      </c>
+      <c r="C74">
+        <v>0.001</v>
+      </c>
+      <c r="D74">
+        <v>0.00725341436022672</v>
+      </c>
+      <c r="E74">
+        <v>0.2928249254559401</v>
+      </c>
+      <c r="F74">
+        <v>562.1008820127919</v>
+      </c>
+      <c r="G74">
+        <v>0.2938249254559401</v>
+      </c>
+      <c r="H74">
+        <v>0.000241112028278765</v>
+      </c>
+      <c r="I74">
+        <v>3.293835472549318</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>colb</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.1</v>
+      </c>
+      <c r="C75">
+        <v>0.0005</v>
+      </c>
+      <c r="D75">
+        <v>0.002250893144301671</v>
+      </c>
+      <c r="E75">
+        <v>0.7575962968308115</v>
+      </c>
+      <c r="F75">
+        <v>850.8402844816135</v>
+      </c>
+      <c r="G75">
+        <v>0.7580962968308115</v>
+      </c>
+      <c r="H75">
+        <v>9.114893987036352E-05</v>
+      </c>
+      <c r="I75">
+        <v>16.61598080611332</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>lv7.am1.l</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76">
+        <v>0.00225</v>
+      </c>
+      <c r="D76">
+        <v>0.002637101819170901</v>
+      </c>
+      <c r="E76">
+        <v>0.4673316883594743</v>
+      </c>
+      <c r="F76">
+        <v>910.5735569179376</v>
+      </c>
+      <c r="G76">
+        <v>0.4695816883594742</v>
+      </c>
+      <c r="H76">
+        <v>0.0002252696048026747</v>
+      </c>
+      <c r="I76">
+        <v>29.14519430256038</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>lv7.am3.b</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0.1</v>
+      </c>
+      <c r="C77">
+        <v>0.0015</v>
+      </c>
+      <c r="D77">
+        <v>0.008009840919207471</v>
+      </c>
+      <c r="E77">
+        <v>0.2731055909841237</v>
+      </c>
+      <c r="F77">
+        <v>493.8301804386351</v>
+      </c>
+      <c r="G77">
+        <v>0.2746055909841237</v>
+      </c>
+      <c r="H77">
+        <v>0.0002967585860931944</v>
+      </c>
+      <c r="I77">
+        <v>3.447202148279335</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>p4d</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0.1</v>
+      </c>
+      <c r="C78">
+        <v>0.00175</v>
+      </c>
+      <c r="D78">
+        <v>0.003697594001521418</v>
+      </c>
+      <c r="E78">
+        <v>0.4057524937976356</v>
+      </c>
+      <c r="F78">
+        <v>708.719025897203</v>
+      </c>
+      <c r="G78">
+        <v>0.4075024937976356</v>
+      </c>
+      <c r="H78">
+        <v>5.046875101642376E-05</v>
+      </c>
+      <c r="I78">
+        <v>2.42981629551225</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>tbe2.ext2.g</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0.1</v>
+      </c>
+      <c r="C79">
+        <v>0.00225</v>
+      </c>
+      <c r="D79">
+        <v>0.0006074302780987769</v>
+      </c>
+      <c r="E79">
+        <v>5.383054092613088</v>
+      </c>
+      <c r="F79">
+        <v>3203.254250529898</v>
+      </c>
+      <c r="G79">
+        <v>5.385304092613088</v>
+      </c>
+      <c r="H79">
+        <v>0.0001056215763351543</v>
+      </c>
+      <c r="I79">
+        <v>664.5314931855182</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>tbe2.sob.d</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
+        <v>0.0005</v>
+      </c>
+      <c r="D80">
+        <v>0.006671490644422616</v>
+      </c>
+      <c r="E80">
+        <v>0.3042052893930757</v>
+      </c>
+      <c r="F80">
+        <v>698.9275494563424</v>
+      </c>
+      <c r="G80">
+        <v>0.3047052893930757</v>
+      </c>
+      <c r="H80">
+        <v>0.0004586338790867124</v>
+      </c>
+      <c r="I80">
+        <v>6.957554587416097</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>tbe4.am2.d</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+      <c r="C81">
+        <v>0.00225</v>
+      </c>
+      <c r="D81">
+        <v>0.003990307594481827</v>
+      </c>
+      <c r="E81">
+        <v>0.366437195681257</v>
+      </c>
+      <c r="F81">
+        <v>694.9415148967233</v>
+      </c>
+      <c r="G81">
+        <v>0.368687195681257</v>
+      </c>
+      <c r="H81">
+        <v>0.0001227579968533273</v>
+      </c>
+      <c r="I81">
+        <v>4.964872091378497</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>tbe4.ext1.b2</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <v>0.00175</v>
+      </c>
+      <c r="D82">
+        <v>0.005231790345068816</v>
+      </c>
+      <c r="E82">
+        <v>0.2252154805485248</v>
+      </c>
+      <c r="F82">
+        <v>699.3549819109943</v>
+      </c>
+      <c r="G82">
+        <v>0.2269654805485248</v>
+      </c>
+      <c r="H82">
+        <v>0.0002240021925529323</v>
+      </c>
+      <c r="I82">
+        <v>5.254437383870387</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>tbe5.am1.d</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.1</v>
+      </c>
+      <c r="C83">
+        <v>0.00075</v>
+      </c>
+      <c r="D83">
+        <v>0.005837209097587255</v>
+      </c>
+      <c r="E83">
+        <v>0.5121991622948113</v>
+      </c>
+      <c r="F83">
+        <v>590.7048534589346</v>
+      </c>
+      <c r="G83">
+        <v>0.5129491622948114</v>
+      </c>
+      <c r="H83">
+        <v>0.0001538049336256856</v>
+      </c>
+      <c r="I83">
+        <v>3.048667395692913</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>tbe5.am1.e</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.002159485428898943</v>
+      </c>
+      <c r="E84">
+        <v>0.8622136477275784</v>
+      </c>
+      <c r="F84">
+        <v>992.4480143217916</v>
+      </c>
+      <c r="G84">
+        <v>0.8622136477275784</v>
+      </c>
+      <c r="H84">
+        <v>7.57611470641943E-05</v>
+      </c>
+      <c r="I84">
+        <v>17.18937103728916</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>tlv6.am1.j</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>0.1</v>
+      </c>
+      <c r="C85">
+        <v>0.0025</v>
+      </c>
+      <c r="D85">
+        <v>0.002883887546897838</v>
+      </c>
+      <c r="E85">
+        <v>0.5309399617815425</v>
+      </c>
+      <c r="F85">
+        <v>902.334302646783</v>
+      </c>
+      <c r="G85">
+        <v>0.5334399617815424</v>
+      </c>
+      <c r="H85">
+        <v>0.0001534173829106665</v>
+      </c>
+      <c r="I85">
+        <v>15.73096568281333</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>tlv7.am1.c</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <v>0.001</v>
+      </c>
+      <c r="D86">
+        <v>0.004970765135005055</v>
+      </c>
+      <c r="E86">
+        <v>0.5173898957523375</v>
+      </c>
+      <c r="F86">
+        <v>670.1183777605241</v>
+      </c>
+      <c r="G86">
+        <v>0.5183898957523375</v>
+      </c>
+      <c r="H86">
+        <v>0.000150703017432197</v>
+      </c>
+      <c r="I86">
+        <v>3.909670661866942</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>tlv7.am1.e</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0.1</v>
+      </c>
+      <c r="C87">
+        <v>0.00075</v>
+      </c>
+      <c r="D87">
+        <v>0.004055447684816667</v>
+      </c>
+      <c r="E87">
+        <v>0.3677563725898665</v>
+      </c>
+      <c r="F87">
+        <v>730.9852818646679</v>
+      </c>
+      <c r="G87">
+        <v>0.3685063725898665</v>
+      </c>
+      <c r="H87">
+        <v>0.0001262084669012573</v>
+      </c>
+      <c r="I87">
+        <v>4.973169049969902</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>tlv7.am4.h</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>0.001</v>
+      </c>
+      <c r="D88">
+        <v>0.001219634286358005</v>
+      </c>
+      <c r="E88">
+        <v>0.8988939438126022</v>
+      </c>
+      <c r="F88">
+        <v>1497.455191671805</v>
+      </c>
+      <c r="G88">
+        <v>0.8998939438126022</v>
+      </c>
+      <c r="H88">
+        <v>0.0001259083173474709</v>
+      </c>
+      <c r="I88">
+        <v>135.7823042389205</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>tlv7.ext2.k</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>0.1</v>
+      </c>
+      <c r="C89">
+        <v>0.0035</v>
+      </c>
+      <c r="D89">
+        <v>0.006036496676730779</v>
+      </c>
+      <c r="E89">
+        <v>0.2895372377738034</v>
+      </c>
+      <c r="F89">
+        <v>700.6537644370732</v>
+      </c>
+      <c r="G89">
+        <v>0.2930372377738034</v>
+      </c>
+      <c r="H89">
+        <v>0.0004669772339712274</v>
+      </c>
+      <c r="I89">
+        <v>8.443389649697648</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>be5.am1.g</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>0.2</v>
+      </c>
+      <c r="C90">
+        <v>0.002</v>
+      </c>
+      <c r="D90">
+        <v>0.004621125316437928</v>
+      </c>
+      <c r="E90">
+        <v>0.01850041936898285</v>
+      </c>
+      <c r="F90">
+        <v>596.7036968296979</v>
+      </c>
+      <c r="G90">
+        <v>0.02050041936898285</v>
+      </c>
+      <c r="H90">
+        <v>0.000825650881143727</v>
+      </c>
+      <c r="I90">
+        <v>24.83790587908545</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>be6.ext3.d1</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>0.2</v>
+      </c>
+      <c r="C91">
+        <v>0.001</v>
+      </c>
+      <c r="D91">
+        <v>0.007990290328205838</v>
+      </c>
+      <c r="E91">
+        <v>0.01168575253172274</v>
+      </c>
+      <c r="F91">
+        <v>337.1583732725182</v>
+      </c>
+      <c r="G91">
+        <v>0.01268575253172274</v>
+      </c>
+      <c r="H91">
+        <v>0.001564683721908058</v>
+      </c>
+      <c r="I91">
+        <v>18.72455798786302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>be6.ext3.d2</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>0.2</v>
+      </c>
+      <c r="C92">
+        <v>0.0015</v>
+      </c>
+      <c r="D92">
+        <v>0.006571916801779618</v>
+      </c>
+      <c r="E92">
+        <v>0.01933395142719601</v>
+      </c>
+      <c r="F92">
+        <v>377.2353433264684</v>
+      </c>
+      <c r="G92">
+        <v>0.02083395142719601</v>
+      </c>
+      <c r="H92">
+        <v>0.0008791203114787236</v>
+      </c>
+      <c r="I92">
+        <v>14.92376368671568</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>colb</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0.2</v>
+      </c>
+      <c r="C93">
+        <v>0.00375</v>
+      </c>
+      <c r="D93">
+        <v>0.001184432376822685</v>
+      </c>
+      <c r="E93">
+        <v>0.2322008131451308</v>
+      </c>
+      <c r="F93">
+        <v>1238.463177966295</v>
+      </c>
+      <c r="G93">
+        <v>0.2359508131451308</v>
+      </c>
+      <c r="H93">
+        <v>0.0002152440481684059</v>
+      </c>
+      <c r="I93">
+        <v>216.1111051765582</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>lv7.am1.l</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>0.2</v>
+      </c>
+      <c r="C94">
+        <v>0.0005</v>
+      </c>
+      <c r="D94">
+        <v>0.002956696946497338</v>
+      </c>
+      <c r="E94">
+        <v>0.06797145654148826</v>
+      </c>
+      <c r="F94">
+        <v>844.5319753556695</v>
+      </c>
+      <c r="G94">
+        <v>0.06847145654148826</v>
+      </c>
+      <c r="H94">
+        <v>0.0001331330447096893</v>
+      </c>
+      <c r="I94">
+        <v>12.15353269174695</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>p4d</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>0.2</v>
+      </c>
+      <c r="C95">
+        <v>0.00125</v>
+      </c>
+      <c r="D95">
+        <v>0.0003915377583479922</v>
+      </c>
+      <c r="E95">
+        <v>20.72292009764417</v>
+      </c>
+      <c r="F95">
+        <v>5842.560633655232</v>
+      </c>
+      <c r="G95">
+        <v>20.72417009764417</v>
+      </c>
+      <c r="H95">
+        <v>4.280673499988893E-05</v>
+      </c>
+      <c r="I95">
+        <v>801.0484658431699</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>tbe2.ext2.g</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>0.2</v>
+      </c>
+      <c r="C96">
+        <v>0.00225</v>
+      </c>
+      <c r="D96">
+        <v>0.002737884991567029</v>
+      </c>
+      <c r="E96">
+        <v>0.1390541347966394</v>
+      </c>
+      <c r="F96">
+        <v>959.811901330565</v>
+      </c>
+      <c r="G96">
+        <v>0.1413041347966394</v>
+      </c>
+      <c r="H96">
+        <v>0.0001406241358347584</v>
+      </c>
+      <c r="I96">
+        <v>17.37039723318098</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>tbe2.sob.d</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>0.2</v>
+      </c>
+      <c r="C97">
+        <v>0.00075</v>
+      </c>
+      <c r="D97">
+        <v>0.002101480841854606</v>
+      </c>
+      <c r="E97">
+        <v>0.487873629096311</v>
+      </c>
+      <c r="F97">
+        <v>1395.83353737639</v>
+      </c>
+      <c r="G97">
+        <v>0.488623629096311</v>
+      </c>
+      <c r="H97">
+        <v>5.191149726506528E-05</v>
+      </c>
+      <c r="I97">
+        <v>17.63546030156738</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>tbe4.am2.d</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>0.2</v>
+      </c>
+      <c r="C98">
+        <v>0.00175</v>
+      </c>
+      <c r="D98">
+        <v>0.005742941577792839</v>
+      </c>
+      <c r="E98">
+        <v>0.0133986004174466</v>
+      </c>
+      <c r="F98">
+        <v>280.686942146815</v>
+      </c>
+      <c r="G98">
+        <v>0.0151486004174466</v>
+      </c>
+      <c r="H98">
+        <v>0.001106300140047051</v>
+      </c>
+      <c r="I98">
+        <v>24.31689326402631</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>tbe5.am1.e</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>0.2</v>
+      </c>
+      <c r="C99">
+        <v>0.0015</v>
+      </c>
+      <c r="D99">
+        <v>0.0008356395144986136</v>
+      </c>
+      <c r="E99">
+        <v>2.273070986181613</v>
+      </c>
+      <c r="F99">
+        <v>2523.649084773984</v>
+      </c>
+      <c r="G99">
+        <v>2.274570986181613</v>
+      </c>
+      <c r="H99">
+        <v>8.243589534817245E-05</v>
+      </c>
+      <c r="I99">
+        <v>258.990020734771</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>tlv6.am1.j</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>0.2</v>
+      </c>
+      <c r="C100">
+        <v>0.00175</v>
+      </c>
+      <c r="D100">
+        <v>0.007011474114717266</v>
+      </c>
+      <c r="E100">
+        <v>0.00776597183023931</v>
+      </c>
+      <c r="F100">
+        <v>130.3167095219407</v>
+      </c>
+      <c r="G100">
+        <v>0.009515971830239309</v>
+      </c>
+      <c r="H100">
+        <v>0.003031751071604747</v>
+      </c>
+      <c r="I100">
+        <v>46.11422930535031</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>tlv7.am1.c</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>0.2</v>
+      </c>
+      <c r="C101">
+        <v>0.00075</v>
+      </c>
+      <c r="D101">
+        <v>0.002627594985682764</v>
+      </c>
+      <c r="E101">
+        <v>0.3423325052029283</v>
+      </c>
+      <c r="F101">
+        <v>1112.394987415334</v>
+      </c>
+      <c r="G101">
+        <v>0.3430825052029283</v>
+      </c>
+      <c r="H101">
+        <v>6.172444006054111E-05</v>
+      </c>
+      <c r="I101">
+        <v>9.842254153032993</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>tlv7.am1.e</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>0.2</v>
+      </c>
+      <c r="C102">
+        <v>0.00075</v>
+      </c>
+      <c r="D102">
+        <v>0.0006362167611054597</v>
+      </c>
+      <c r="E102">
+        <v>3.114713208460164</v>
+      </c>
+      <c r="F102">
+        <v>3664.10320716399</v>
+      </c>
+      <c r="G102">
+        <v>3.115463208460164</v>
+      </c>
+      <c r="H102">
+        <v>0.0001756656686892972</v>
+      </c>
+      <c r="I102">
+        <v>1130.653114920774</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>tlv7.am4.h</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0.2</v>
+      </c>
+      <c r="C103">
+        <v>0.00225</v>
+      </c>
+      <c r="D103">
+        <v>0.001270870892977343</v>
+      </c>
+      <c r="E103">
+        <v>0.3099793050481581</v>
+      </c>
+      <c r="F103">
+        <v>1496.889429388659</v>
+      </c>
+      <c r="G103">
+        <v>0.3122293050481581</v>
+      </c>
+      <c r="H103">
+        <v>6.002700902668354E-05</v>
+      </c>
+      <c r="I103">
+        <v>59.68014377318195</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>tlv7.ext2.k</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0.2</v>
+      </c>
+      <c r="C104">
+        <v>0.00125</v>
+      </c>
+      <c r="D104">
+        <v>0.002229511005355597</v>
+      </c>
+      <c r="E104">
+        <v>0.1239800433546174</v>
+      </c>
+      <c r="F104">
+        <v>1281.347451897544</v>
+      </c>
+      <c r="G104">
+        <v>0.1252300433546174</v>
+      </c>
+      <c r="H104">
+        <v>0.000120191237186804</v>
+      </c>
+      <c r="I104">
+        <v>32.66638281060979</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>tbe5.am1.e</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>0.3</v>
+      </c>
+      <c r="C105">
+        <v>0.00025</v>
+      </c>
+      <c r="D105">
         <v>0.001678022889423565</v>
       </c>
-      <c r="E53">
+      <c r="E105">
         <v>0.04508531534703471</v>
       </c>
-      <c r="F53">
+      <c r="F105">
         <v>943.7982125323409</v>
       </c>
-      <c r="G53">
+      <c r="G105">
+        <v>0.04533531534703471</v>
+      </c>
+      <c r="H105">
         <v>0.0004466578576849445</v>
       </c>
-      <c r="H53">
+      <c r="I105">
         <v>176.6927704327227</v>
       </c>
     </row>
